--- a/data/trans_orig/P33A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>358458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>342595</v>
+        <v>340865</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>375239</v>
+        <v>374745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8234234487594241</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7869826716328613</v>
+        <v>0.7830085519562393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8619701031270381</v>
+        <v>0.8608360525863548</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>211</v>
@@ -764,19 +764,19 @@
         <v>237842</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>220461</v>
+        <v>221688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>253394</v>
+        <v>252330</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.761071754912838</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.705455486173338</v>
+        <v>0.709382205647612</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8108383988307786</v>
+        <v>0.8074327993996879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>540</v>
@@ -785,19 +785,19 @@
         <v>596300</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>571690</v>
+        <v>572444</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>616526</v>
+        <v>618546</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7973676321828266</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7644589166690613</v>
+        <v>0.7654674189764277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8244139544196599</v>
+        <v>0.827114803878446</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>76869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60088</v>
+        <v>60582</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92732</v>
+        <v>94462</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1765765512405759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1380298968729617</v>
+        <v>0.1391639474136452</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2130173283671387</v>
+        <v>0.2169914480437607</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -835,19 +835,19 @@
         <v>74667</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59115</v>
+        <v>60179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92048</v>
+        <v>90821</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.238928245087162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1891616011692214</v>
+        <v>0.1925672006003121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.294544513826662</v>
+        <v>0.2906177943523881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>143</v>
@@ -856,19 +856,19 @@
         <v>151536</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131310</v>
+        <v>129290</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176146</v>
+        <v>175392</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2026323678171734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.17558604558034</v>
+        <v>0.172885196121554</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2355410833309387</v>
+        <v>0.2345325810235723</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>344703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>327070</v>
+        <v>327538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>359066</v>
+        <v>360054</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8288537752890097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7864540397260253</v>
+        <v>0.7875789390182858</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8633901114537811</v>
+        <v>0.8657668618880692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>223</v>
@@ -981,19 +981,19 @@
         <v>250933</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>234028</v>
+        <v>232981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265963</v>
+        <v>265388</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7446862917990343</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6945180213583234</v>
+        <v>0.6914105132029131</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.78928903847453</v>
+        <v>0.7875824971364295</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>530</v>
@@ -1002,19 +1002,19 @@
         <v>595636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>569717</v>
+        <v>568502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>617061</v>
+        <v>617749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7911813516987197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7567531772467162</v>
+        <v>0.7551398329291285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8196397569575486</v>
+        <v>0.8205541099440972</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>71176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56813</v>
+        <v>55825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88809</v>
+        <v>88341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1711462247109903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1366098885462189</v>
+        <v>0.1342331381119308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2135459602739746</v>
+        <v>0.2124210609817141</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -1052,19 +1052,19 @@
         <v>86032</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71002</v>
+        <v>71577</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>102937</v>
+        <v>103984</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2553137082009656</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2107109615254699</v>
+        <v>0.2124175028635704</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3054819786416764</v>
+        <v>0.3085894867970868</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -1073,19 +1073,19 @@
         <v>157208</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>135783</v>
+        <v>135095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>183127</v>
+        <v>184342</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2088186483012803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1803602430424512</v>
+        <v>0.1794458900559028</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2432468227532837</v>
+        <v>0.2448601670708714</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>550958</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>532523</v>
+        <v>533100</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>567090</v>
+        <v>568057</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8796840200965527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8502510597751658</v>
+        <v>0.8511714432374086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9054417976677385</v>
+        <v>0.9069860452801548</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -1198,19 +1198,19 @@
         <v>179792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>163449</v>
+        <v>164539</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>193829</v>
+        <v>193472</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7001561759531093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6365148756124858</v>
+        <v>0.6407567204444601</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7548222297003624</v>
+        <v>0.7534310478694639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>684</v>
@@ -1219,19 +1219,19 @@
         <v>730749</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>706638</v>
+        <v>708717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>752538</v>
+        <v>754459</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8274808604217779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8001783861587674</v>
+        <v>0.8025322321285295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8521540609749439</v>
+        <v>0.8543290967831511</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>75355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59223</v>
+        <v>58256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93790</v>
+        <v>93213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1203159799034473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09455820233226124</v>
+        <v>0.09301395471984511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1497489402248341</v>
+        <v>0.1488285567625914</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -1269,19 +1269,19 @@
         <v>76996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62959</v>
+        <v>63316</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93339</v>
+        <v>92249</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2998438240468907</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2451777702996377</v>
+        <v>0.2465689521305363</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3634851243875142</v>
+        <v>0.3592432795555402</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>145</v>
@@ -1290,19 +1290,19 @@
         <v>152352</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>130563</v>
+        <v>128642</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>176463</v>
+        <v>174384</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1725191395782221</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.147845939025056</v>
+        <v>0.1456709032168487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1998216138412326</v>
+        <v>0.1974677678714704</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>975457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>948360</v>
+        <v>952550</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>998737</v>
+        <v>1001370</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8489854288776224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8254011850078713</v>
+        <v>0.829048415624726</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8692467923169458</v>
+        <v>0.871538512615727</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>510</v>
@@ -1415,19 +1415,19 @@
         <v>546036</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>520628</v>
+        <v>520867</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>570401</v>
+        <v>573316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7205909809648152</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6870606657776719</v>
+        <v>0.6873751287816217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7527438410632953</v>
+        <v>0.7565914495654157</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1421</v>
@@ -1436,19 +1436,19 @@
         <v>1521494</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1482874</v>
+        <v>1487488</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1557543</v>
+        <v>1558089</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7979596380852825</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7777051078910564</v>
+        <v>0.7801249808972931</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8168658097276366</v>
+        <v>0.8171521523780078</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>173511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150231</v>
+        <v>147598</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200608</v>
+        <v>196418</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1510145711223776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1307532076830544</v>
+        <v>0.128461487384273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1745988149921288</v>
+        <v>0.1709515843752741</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>192</v>
@@ -1486,19 +1486,19 @@
         <v>211726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>187361</v>
+        <v>184446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>237134</v>
+        <v>236895</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2794090190351848</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2472561589367047</v>
+        <v>0.2434085504345843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3129393342223281</v>
+        <v>0.3126248712183783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>355</v>
@@ -1507,19 +1507,19 @@
         <v>385236</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>349187</v>
+        <v>348641</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>423856</v>
+        <v>419242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2020403619147175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1831341902723634</v>
+        <v>0.1828478476219922</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2222948921089435</v>
+        <v>0.2198750191027069</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>430672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>413762</v>
+        <v>411617</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>446011</v>
+        <v>446299</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8489427111883038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8156093268287601</v>
+        <v>0.8113811244496386</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8791786878980457</v>
+        <v>0.8797473943750292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>492</v>
@@ -1632,19 +1632,19 @@
         <v>534156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>508182</v>
+        <v>508061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>559615</v>
+        <v>561496</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7032028822069505</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6690084564912644</v>
+        <v>0.6688488051125184</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7367189094180646</v>
+        <v>0.7391941440091855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>901</v>
@@ -1653,19 +1653,19 @@
         <v>964828</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>934806</v>
+        <v>931335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>992173</v>
+        <v>992106</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7615609852189978</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.737863298820474</v>
+        <v>0.7351237002294106</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7831449555679821</v>
+        <v>0.7830915047156524</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>76632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61293</v>
+        <v>61005</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93542</v>
+        <v>95687</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1510572888116962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1208213121019543</v>
+        <v>0.1202526056249706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1843906731712399</v>
+        <v>0.1886188755503614</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>209</v>
@@ -1703,19 +1703,19 @@
         <v>225449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199990</v>
+        <v>198109</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>251423</v>
+        <v>251544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2967971177930495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2632810905819354</v>
+        <v>0.2608058559908146</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3309915435087358</v>
+        <v>0.3311511948874816</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>284</v>
@@ -1724,19 +1724,19 @@
         <v>302081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>274736</v>
+        <v>274803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332103</v>
+        <v>335574</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2384390147810022</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2168550444320178</v>
+        <v>0.2169084952843476</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.262136701179526</v>
+        <v>0.2648762997705893</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>222748</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>209532</v>
+        <v>210412</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>232428</v>
+        <v>233524</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8439276007389179</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7938550224132338</v>
+        <v>0.7971920811771924</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8806037873540086</v>
+        <v>0.8847563813533725</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>788</v>
@@ -1849,19 +1849,19 @@
         <v>836038</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>805162</v>
+        <v>804572</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>863870</v>
+        <v>862914</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7600603677189791</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7319906239820405</v>
+        <v>0.7314547770699976</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7853634338354928</v>
+        <v>0.7844946688909372</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1009</v>
@@ -1870,19 +1870,19 @@
         <v>1058785</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1028962</v>
+        <v>1028661</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1089746</v>
+        <v>1089442</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7762903171490583</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7544238208951751</v>
+        <v>0.7542035425960878</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7989899395286431</v>
+        <v>0.798767048162764</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>41194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31514</v>
+        <v>30418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54410</v>
+        <v>53530</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.156072399261082</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1193962126459912</v>
+        <v>0.1152436186466277</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2061449775867661</v>
+        <v>0.2028079188228085</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -1920,19 +1920,19 @@
         <v>263924</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236092</v>
+        <v>237048</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>294800</v>
+        <v>295390</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2399396322810209</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2146365661645072</v>
+        <v>0.2155053311090628</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2680093760179595</v>
+        <v>0.2685452229300024</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>288</v>
@@ -1941,19 +1941,19 @@
         <v>305119</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>274158</v>
+        <v>274462</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>334942</v>
+        <v>335243</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2237096828509417</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.201010060471357</v>
+        <v>0.201232951837236</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.245576179104825</v>
+        <v>0.2457964574039122</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>2882996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2833513</v>
+        <v>2841614</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2926460</v>
+        <v>2923724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8485057307437635</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8339420982149456</v>
+        <v>0.8363265957636445</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8612978963453018</v>
+        <v>0.8604925562633492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2391</v>
@@ -2066,19 +2066,19 @@
         <v>2584796</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2530030</v>
+        <v>2536500</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2636479</v>
+        <v>2640410</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7335689912139089</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7180261027044029</v>
+        <v>0.7198623671745837</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7482365420174998</v>
+        <v>0.7493521725378266</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5085</v>
@@ -2087,19 +2087,19 @@
         <v>5467792</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5398076</v>
+        <v>5389538</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5533224</v>
+        <v>5540052</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7899923565013652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7799196808954021</v>
+        <v>0.77868616922253</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7994459650387061</v>
+        <v>0.8004325401065312</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>514737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>471273</v>
+        <v>474009</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>564220</v>
+        <v>556119</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1514942692562365</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1387021036546981</v>
+        <v>0.1395074437366509</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1660579017850544</v>
+        <v>0.1636734042363555</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>873</v>
@@ -2137,19 +2137,19 @@
         <v>938794</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>887111</v>
+        <v>883180</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>993560</v>
+        <v>987090</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2664310087860911</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2517634579825002</v>
+        <v>0.2506478274621733</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.281973897295597</v>
+        <v>0.2801376328254163</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1361</v>
@@ -2158,19 +2158,19 @@
         <v>1453531</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1388099</v>
+        <v>1381271</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1523247</v>
+        <v>1531785</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2100076434986348</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.200554034961294</v>
+        <v>0.1995674598934689</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2200803191045979</v>
+        <v>0.2213138307774707</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>353354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>337019</v>
+        <v>335772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>369097</v>
+        <v>368731</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8360259817512075</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7973779480003991</v>
+        <v>0.7944266805225528</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8732744671897767</v>
+        <v>0.8724077789230394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -2525,19 +2525,19 @@
         <v>249186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>230174</v>
+        <v>230519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>265063</v>
+        <v>265032</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7299301277526555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6742408155756656</v>
+        <v>0.6752496338926751</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7764373889973453</v>
+        <v>0.7763489154340885</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>569</v>
@@ -2546,19 +2546,19 @@
         <v>602540</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>577490</v>
+        <v>579139</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>627958</v>
+        <v>627211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7886211612448106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7558360509880959</v>
+        <v>0.7579934491095037</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8218897113440036</v>
+        <v>0.8209114973346452</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>69305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53562</v>
+        <v>53928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85640</v>
+        <v>86887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1639740182487925</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1267255328102233</v>
+        <v>0.1275922210769606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.202622051999601</v>
+        <v>0.2055733194774469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -2596,19 +2596,19 @@
         <v>92197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76320</v>
+        <v>76351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111209</v>
+        <v>110864</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2700698722473445</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2235626110026546</v>
+        <v>0.2236510845659116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3257591844243342</v>
+        <v>0.3247503661073249</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>148</v>
@@ -2617,19 +2617,19 @@
         <v>161502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>136084</v>
+        <v>136831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186552</v>
+        <v>184903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2113788387551893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1781102886559964</v>
+        <v>0.1790885026653548</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2441639490119037</v>
+        <v>0.2420065508904959</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>296626</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>280131</v>
+        <v>280676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>312541</v>
+        <v>312583</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8000509081735196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7555598017157753</v>
+        <v>0.7570311927894887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8429757248259592</v>
+        <v>0.8430888290095074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>264</v>
@@ -2742,19 +2742,19 @@
         <v>278697</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>261189</v>
+        <v>261535</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>294176</v>
+        <v>294787</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7535882991185674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7062491087354338</v>
+        <v>0.7071835801452857</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7954439041149288</v>
+        <v>0.7970952394035009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>544</v>
@@ -2763,19 +2763,19 @@
         <v>575323</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>549180</v>
+        <v>552047</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>598070</v>
+        <v>597141</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7768488670190942</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7415487169884634</v>
+        <v>0.7454200910809025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8075639466361465</v>
+        <v>0.8063097375658664</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>74133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58218</v>
+        <v>58176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>90628</v>
+        <v>90083</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1999490918264803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1570242751740407</v>
+        <v>0.1569111709904924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2444401982842246</v>
+        <v>0.2429688072105113</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -2813,19 +2813,19 @@
         <v>91129</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75650</v>
+        <v>75039</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108637</v>
+        <v>108291</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2464117008814326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2045560958850712</v>
+        <v>0.2029047605964984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2937508912645664</v>
+        <v>0.2928164198547136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>154</v>
@@ -2834,19 +2834,19 @@
         <v>165262</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142515</v>
+        <v>143444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>191405</v>
+        <v>188538</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2231511329809058</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1924360533638535</v>
+        <v>0.1936902624341335</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2584512830115366</v>
+        <v>0.2545799089190975</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>440405</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>424218</v>
+        <v>423293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>456151</v>
+        <v>455260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8487533460052954</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8175579775278887</v>
+        <v>0.8157766951973959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8791006835826658</v>
+        <v>0.8773824424967558</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -2959,19 +2959,19 @@
         <v>111588</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96524</v>
+        <v>98293</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122757</v>
+        <v>123026</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6801817810464211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5883588020906828</v>
+        <v>0.5991459155516089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7482598696961583</v>
+        <v>0.7498998032084884</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>529</v>
@@ -2980,19 +2980,19 @@
         <v>551992</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>530139</v>
+        <v>531509</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>573475</v>
+        <v>572342</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8082590757826774</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7762606698930875</v>
+        <v>0.7782664693589428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8397168951750886</v>
+        <v>0.838057442993823</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>78479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62733</v>
+        <v>63624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94666</v>
+        <v>95591</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1512466539947047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1208993164173346</v>
+        <v>0.1226175575032443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1824420224721114</v>
+        <v>0.184223304802604</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -3030,19 +3030,19 @@
         <v>52468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41299</v>
+        <v>41030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67532</v>
+        <v>65763</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3198182189535789</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2517401303038416</v>
+        <v>0.2501001967915117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4116411979093172</v>
+        <v>0.4008540844483912</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>121</v>
@@ -3051,19 +3051,19 @@
         <v>130947</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>109464</v>
+        <v>110597</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152800</v>
+        <v>151430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1917409242173226</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1602831048249112</v>
+        <v>0.1619425570061771</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2237393301069124</v>
+        <v>0.2217335306410571</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>963850</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>938166</v>
+        <v>938142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>988053</v>
+        <v>985841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8483736278687604</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8257670096395309</v>
+        <v>0.8257453660547494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8696770763556786</v>
+        <v>0.8677297460404553</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>561</v>
@@ -3176,19 +3176,19 @@
         <v>579520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>552814</v>
+        <v>551316</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>604075</v>
+        <v>604267</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7075346397362005</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.674928748006433</v>
+        <v>0.6731002571198225</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7375128700734249</v>
+        <v>0.7377479024456789</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1486</v>
@@ -3197,19 +3197,19 @@
         <v>1543370</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1502226</v>
+        <v>1503858</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1578134</v>
+        <v>1579372</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7893730623694796</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7683292378565209</v>
+        <v>0.7691640573454133</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8071531094303132</v>
+        <v>0.8077864018522707</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>172265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148062</v>
+        <v>150274</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197949</v>
+        <v>197973</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1516263721312397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1303229236443214</v>
+        <v>0.1322702539595448</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1742329903604693</v>
+        <v>0.1742546339452506</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>230</v>
@@ -3247,19 +3247,19 @@
         <v>239550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>214995</v>
+        <v>214803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>266256</v>
+        <v>267754</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2924653602637995</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.262487129926575</v>
+        <v>0.2622520975543211</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.325071251993567</v>
+        <v>0.3268997428801775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>396</v>
@@ -3268,19 +3268,19 @@
         <v>411815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>377051</v>
+        <v>375813</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>452959</v>
+        <v>451327</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2106269376305205</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1928468905696871</v>
+        <v>0.1922135981477292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2316707621434793</v>
+        <v>0.2308359426545867</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>513172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>494651</v>
+        <v>494610</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>530777</v>
+        <v>532377</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.833683241950037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8035945159438167</v>
+        <v>0.8035285249396587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8622831620512696</v>
+        <v>0.8648827154438896</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>484</v>
@@ -3393,19 +3393,19 @@
         <v>506948</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>480374</v>
+        <v>482117</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>533849</v>
+        <v>531750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6937171797489902</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.657352754267865</v>
+        <v>0.6597372214295882</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7305290920003484</v>
+        <v>0.7276561002963298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>978</v>
@@ -3414,19 +3414,19 @@
         <v>1020121</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>985503</v>
+        <v>988946</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1053407</v>
+        <v>1055876</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7577108121196482</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7319975321179322</v>
+        <v>0.7345545824238598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7824345888993891</v>
+        <v>0.7842683696202595</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>102376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84771</v>
+        <v>83171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120897</v>
+        <v>120938</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1663167580499631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1377168379487302</v>
+        <v>0.1351172845561104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1964054840561833</v>
+        <v>0.1964714750603413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>208</v>
@@ -3464,19 +3464,19 @@
         <v>223823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196922</v>
+        <v>199021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>250397</v>
+        <v>248654</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3062828202510099</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2694709079996517</v>
+        <v>0.2723438997036705</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3426472457321352</v>
+        <v>0.3402627785704118</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>306</v>
@@ -3485,19 +3485,19 @@
         <v>326199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>292913</v>
+        <v>290444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>360817</v>
+        <v>357374</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2422891878803518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2175654111006109</v>
+        <v>0.2157316303797405</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2680024678820679</v>
+        <v>0.2654454175761403</v>
       </c>
     </row>
     <row r="18">
@@ -3589,19 +3589,19 @@
         <v>250596</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>237665</v>
+        <v>239798</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>260303</v>
+        <v>261435</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8787571344719834</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8334130792876011</v>
+        <v>0.8408930684666598</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.912796814631456</v>
+        <v>0.9167650441435923</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>771</v>
@@ -3610,19 +3610,19 @@
         <v>841187</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>813162</v>
+        <v>810629</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>867189</v>
+        <v>865957</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7927407241512658</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.766330273223596</v>
+        <v>0.7639431237451894</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8172454004930703</v>
+        <v>0.8160848626597788</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1009</v>
@@ -3631,19 +3631,19 @@
         <v>1091783</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1062312</v>
+        <v>1062738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1121321</v>
+        <v>1118019</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8109607815137276</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7890704447435206</v>
+        <v>0.7893869757649613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8329015041368357</v>
+        <v>0.8304488181823804</v>
       </c>
     </row>
     <row r="20">
@@ -3660,19 +3660,19 @@
         <v>34575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24868</v>
+        <v>23736</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47506</v>
+        <v>45373</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1212428655280165</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08720318536854405</v>
+        <v>0.08323495585640758</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1665869207123989</v>
+        <v>0.1591069315333402</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>203</v>
@@ -3681,19 +3681,19 @@
         <v>219925</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193923</v>
+        <v>195155</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247950</v>
+        <v>250483</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2072592758487342</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1827545995069298</v>
+        <v>0.1839151373402215</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2336697267764041</v>
+        <v>0.2360568762548112</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>235</v>
@@ -3702,19 +3702,19 @@
         <v>254500</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>224962</v>
+        <v>228264</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283971</v>
+        <v>283545</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1890392184862724</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1670984958631643</v>
+        <v>0.1695511818176198</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2109295552564794</v>
+        <v>0.2106130242350389</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>2818003</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2774083</v>
+        <v>2774836</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2860164</v>
+        <v>2859285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8414118114334932</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8282982353260133</v>
+        <v>0.8285228884939961</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8540005215507693</v>
+        <v>0.8537379856105176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2424</v>
@@ -3827,19 +3827,19 @@
         <v>2567126</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2516245</v>
+        <v>2518205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2619221</v>
+        <v>2624494</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7363640780831776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7217689160242825</v>
+        <v>0.7223313368659856</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7513070937345159</v>
+        <v>0.7528195574347882</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5115</v>
@@ -3848,19 +3848,19 @@
         <v>5385129</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5308839</v>
+        <v>5315578</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5451934</v>
+        <v>5454158</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7878345826677634</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7766735157660675</v>
+        <v>0.7776593605546201</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7976079910799847</v>
+        <v>0.797933401615862</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>531133</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>488972</v>
+        <v>489851</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>575053</v>
+        <v>574300</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1585881885665068</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1459994784492306</v>
+        <v>0.1462620143894824</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1717017646739866</v>
+        <v>0.1714771115060039</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>861</v>
@@ -3898,19 +3898,19 @@
         <v>919093</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>866998</v>
+        <v>861725</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>969974</v>
+        <v>968014</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2636359219168224</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.248692906265484</v>
+        <v>0.2471804425652118</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2782310839757169</v>
+        <v>0.2776686631340142</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1360</v>
@@ -3919,19 +3919,19 @@
         <v>1450226</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1383421</v>
+        <v>1381197</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1526516</v>
+        <v>1519777</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2121654173322366</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.202392008920015</v>
+        <v>0.2020665983841378</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2233264842339324</v>
+        <v>0.2223406394453798</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>458900</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>437902</v>
+        <v>440669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>476325</v>
+        <v>477265</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8334265507377994</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7952913322235036</v>
+        <v>0.8003166052040013</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8650743085884958</v>
+        <v>0.8667800101252776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>538</v>
@@ -4286,19 +4286,19 @@
         <v>382885</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>366715</v>
+        <v>368020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>399507</v>
+        <v>399326</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7890816898097535</v>
+        <v>0.7890816898097534</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7557573095773159</v>
+        <v>0.7584457142342069</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.823336383780393</v>
+        <v>0.822964476485641</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1002</v>
@@ -4307,19 +4307,19 @@
         <v>841785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>815344</v>
+        <v>814082</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>865146</v>
+        <v>865120</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8126537939115838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.787127592263195</v>
+        <v>0.7859093081587954</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8352063779438732</v>
+        <v>0.8351812077747454</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>91718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74293</v>
+        <v>73353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112716</v>
+        <v>109949</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1665734492622006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1349256914115042</v>
+        <v>0.1332199898747223</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2047086677764964</v>
+        <v>0.1996833947959991</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>144</v>
@@ -4357,19 +4357,19 @@
         <v>102344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85722</v>
+        <v>85903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118514</v>
+        <v>117209</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2109183101902466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1766636162196072</v>
+        <v>0.1770355235143589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2442426904226841</v>
+        <v>0.241554285765793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>234</v>
@@ -4378,19 +4378,19 @@
         <v>194062</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170701</v>
+        <v>170727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>220503</v>
+        <v>221765</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1873462060884163</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1647936220561266</v>
+        <v>0.1648187922252546</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2128724077368052</v>
+        <v>0.2140906918412045</v>
       </c>
     </row>
     <row r="6">
@@ -4482,19 +4482,19 @@
         <v>399871</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>380732</v>
+        <v>381931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>415022</v>
+        <v>415664</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8339306431574746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7940180819322024</v>
+        <v>0.7965186696842776</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8655285788738092</v>
+        <v>0.8668669498568614</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>446</v>
@@ -4503,19 +4503,19 @@
         <v>319906</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>304476</v>
+        <v>305647</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>333543</v>
+        <v>334517</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7634291480082036</v>
+        <v>0.7634291480082035</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7266061475283517</v>
+        <v>0.7294021184063129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7959727243564415</v>
+        <v>0.798298667568311</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>840</v>
@@ -4524,19 +4524,19 @@
         <v>719776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>697479</v>
+        <v>696794</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>742769</v>
+        <v>740372</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8010519155947124</v>
+        <v>0.8010519155947126</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7762370912761751</v>
+        <v>0.7754743946529609</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8266411101224009</v>
+        <v>0.8239729112695614</v>
       </c>
     </row>
     <row r="8">
@@ -4553,19 +4553,19 @@
         <v>79630</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64479</v>
+        <v>63837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>98769</v>
+        <v>97570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1660693568425255</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1344714211261907</v>
+        <v>0.1331330501431387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2059819180677978</v>
+        <v>0.2034813303157225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>139</v>
@@ -4574,19 +4574,19 @@
         <v>99132</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>85495</v>
+        <v>84521</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>114562</v>
+        <v>113391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2365708519917963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2040272756435585</v>
+        <v>0.2017013324316889</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2733938524716483</v>
+        <v>0.2705978815936871</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>222</v>
@@ -4595,19 +4595,19 @@
         <v>178763</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>155770</v>
+        <v>158167</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>201060</v>
+        <v>201745</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1989480844052874</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1733588898775991</v>
+        <v>0.1760270887304385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2237629087238249</v>
+        <v>0.224525605347039</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>377897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>360114</v>
+        <v>358298</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>394712</v>
+        <v>394140</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8029554939413704</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7651688321593028</v>
+        <v>0.7613115620323598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8386830398911234</v>
+        <v>0.8374686325565243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>199</v>
@@ -4720,19 +4720,19 @@
         <v>129466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117964</v>
+        <v>117761</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139357</v>
+        <v>139025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6904969881852746</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6291509868140771</v>
+        <v>0.6280702740397918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7432467187197684</v>
+        <v>0.7414779454794915</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>585</v>
@@ -4741,19 +4741,19 @@
         <v>507363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>486539</v>
+        <v>484970</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>528739</v>
+        <v>526385</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7709167661448223</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7392753542221899</v>
+        <v>0.7368904858458291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8033959264192416</v>
+        <v>0.7998197412231351</v>
       </c>
     </row>
     <row r="11">
@@ -4770,19 +4770,19 @@
         <v>92736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75921</v>
+        <v>76493</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110519</v>
+        <v>112335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1970445060586296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1613169601088768</v>
+        <v>0.1625313674434757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2348311678406974</v>
+        <v>0.2386884379676399</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -4791,19 +4791,19 @@
         <v>58031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48140</v>
+        <v>48472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69533</v>
+        <v>69736</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3095030118147254</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2567532812802316</v>
+        <v>0.2585220545205084</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3708490131859231</v>
+        <v>0.3719297259602082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>191</v>
@@ -4812,19 +4812,19 @@
         <v>150767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129391</v>
+        <v>131745</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>171591</v>
+        <v>173160</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2290832338551777</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1966040735807584</v>
+        <v>0.2001802587768648</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2607246457778101</v>
+        <v>0.2631095141541708</v>
       </c>
     </row>
     <row r="12">
@@ -4916,19 +4916,19 @@
         <v>905985</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>877113</v>
+        <v>876613</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>931571</v>
+        <v>932746</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8041595103185194</v>
+        <v>0.8041595103185192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7785324556231558</v>
+        <v>0.7780889162019997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8268705265362998</v>
+        <v>0.8279132139691877</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>906</v>
@@ -4937,19 +4937,19 @@
         <v>630139</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>606333</v>
+        <v>604761</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>652615</v>
+        <v>651081</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7384654754068619</v>
+        <v>0.7384654754068618</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7105669286124099</v>
+        <v>0.7087244643658053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.764804775465278</v>
+        <v>0.7630070733850104</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1792</v>
@@ -4958,19 +4958,19 @@
         <v>1536123</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1499496</v>
+        <v>1497067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1572042</v>
+        <v>1572771</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7758467706856811</v>
+        <v>0.7758467706856812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7573478253119739</v>
+        <v>0.7561207955480115</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7939883325788596</v>
+        <v>0.7943565562121996</v>
       </c>
     </row>
     <row r="14">
@@ -4987,19 +4987,19 @@
         <v>220638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>195052</v>
+        <v>193877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>249510</v>
+        <v>250010</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1958404896814807</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1731294734637006</v>
+        <v>0.1720867860308122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2214675443768443</v>
+        <v>0.2219110837979997</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>315</v>
@@ -5008,19 +5008,19 @@
         <v>223170</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>200694</v>
+        <v>202228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>246976</v>
+        <v>248548</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2615345245931381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2351952245347217</v>
+        <v>0.2369929266149897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.28943307138759</v>
+        <v>0.2912755356341948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>542</v>
@@ -5029,19 +5029,19 @@
         <v>443808</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>407889</v>
+        <v>407160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>480435</v>
+        <v>482864</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2241532293143189</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2060116674211399</v>
+        <v>0.2056434437878004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2426521746880262</v>
+        <v>0.2438792044519886</v>
       </c>
     </row>
     <row r="15">
@@ -5133,19 +5133,19 @@
         <v>472408</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>453132</v>
+        <v>455347</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>488700</v>
+        <v>489513</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.835392861570067</v>
+        <v>0.8353928615700671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8013066435314014</v>
+        <v>0.8052221195354122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8642030009597403</v>
+        <v>0.8656412359661219</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>897</v>
@@ -5154,19 +5154,19 @@
         <v>579665</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>557303</v>
+        <v>556772</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>601333</v>
+        <v>600576</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7011015856172101</v>
+        <v>0.70110158561721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6740542797013989</v>
+        <v>0.673412621842068</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7273086349201168</v>
+        <v>0.7263935502450358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1338</v>
@@ -5175,19 +5175,19 @@
         <v>1052073</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1021753</v>
+        <v>1020360</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1080920</v>
+        <v>1079870</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7556455311315038</v>
+        <v>0.7556455311315036</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7338683772155454</v>
+        <v>0.7328678023250889</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7763649375918168</v>
+        <v>0.7756105024988934</v>
       </c>
     </row>
     <row r="17">
@@ -5204,19 +5204,19 @@
         <v>93084</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>76792</v>
+        <v>75979</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>112360</v>
+        <v>110145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.164607138429933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1357969990402594</v>
+        <v>0.134358764033878</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.198693356468598</v>
+        <v>0.1947778804645877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>388</v>
@@ -5225,19 +5225,19 @@
         <v>247127</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>225459</v>
+        <v>226216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>269489</v>
+        <v>270020</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.29889841438279</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2726913650798834</v>
+        <v>0.2736064497549642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3259457202986013</v>
+        <v>0.326587378157932</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>492</v>
@@ -5246,19 +5246,19 @@
         <v>340211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>311364</v>
+        <v>312414</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>370531</v>
+        <v>371924</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2443544688684964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2236350624081832</v>
+        <v>0.2243894975011066</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2661316227844546</v>
+        <v>0.2671321976749111</v>
       </c>
     </row>
     <row r="18">
@@ -5350,19 +5350,19 @@
         <v>222318</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>211946</v>
+        <v>212257</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>228548</v>
+        <v>228841</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9507411266054177</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9063829975201391</v>
+        <v>0.9077117980151017</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9773801400718276</v>
+        <v>0.9786357926635068</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>813</v>
@@ -5371,19 +5371,19 @@
         <v>620644</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>597370</v>
+        <v>598316</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>643317</v>
+        <v>642012</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7424891364039102</v>
+        <v>0.7424891364039103</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7146457460289314</v>
+        <v>0.7157768725816067</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7696131046031314</v>
+        <v>0.7680512686404681</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>914</v>
@@ -5392,19 +5392,19 @@
         <v>842964</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>818135</v>
+        <v>818692</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>867620</v>
+        <v>867892</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7880117131292014</v>
+        <v>0.7880117131292013</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.764801892594983</v>
+        <v>0.7653218458863248</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8110603362438847</v>
+        <v>0.8113146780524149</v>
       </c>
     </row>
     <row r="20">
@@ -5421,19 +5421,19 @@
         <v>11519</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5289</v>
+        <v>4996</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21891</v>
+        <v>21580</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04925887339458238</v>
+        <v>0.04925887339458239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02261985992817253</v>
+        <v>0.02136420733649303</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09361700247986095</v>
+        <v>0.09228820198489797</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>337</v>
@@ -5442,19 +5442,19 @@
         <v>215253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192580</v>
+        <v>193885</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>238527</v>
+        <v>237581</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2575108635960897</v>
+        <v>0.2575108635960898</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2303868953968688</v>
+        <v>0.2319487313595318</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2853542539710688</v>
+        <v>0.2842231274183935</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>347</v>
@@ -5463,19 +5463,19 @@
         <v>226771</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>202115</v>
+        <v>201843</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>251600</v>
+        <v>251043</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2119882868707986</v>
+        <v>0.2119882868707987</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1889396637561153</v>
+        <v>0.1886853219475851</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2351981074050172</v>
+        <v>0.2346781541136753</v>
       </c>
     </row>
     <row r="21">
@@ -5567,19 +5567,19 @@
         <v>2837379</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2788363</v>
+        <v>2782964</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2879863</v>
+        <v>2882387</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8280197715624023</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.813715852713334</v>
+        <v>0.8121402411751136</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8404177909393586</v>
+        <v>0.841154270205677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3799</v>
@@ -5588,19 +5588,19 @@
         <v>2662706</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2615335</v>
+        <v>2615070</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2704978</v>
+        <v>2705384</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7380492636964368</v>
+        <v>0.7380492636964369</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7249189543518311</v>
+        <v>0.7248455583924798</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7497663331359297</v>
+        <v>0.7498786721624127</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6471</v>
@@ -5609,19 +5609,19 @@
         <v>5500085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5429136</v>
+        <v>5436937</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5563430</v>
+        <v>5565197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7818766587807865</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7717907720250555</v>
+        <v>0.7728997755326202</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7908816557231306</v>
+        <v>0.7911328106646009</v>
       </c>
     </row>
     <row r="23">
@@ -5638,19 +5638,19 @@
         <v>589325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>546841</v>
+        <v>544317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638341</v>
+        <v>643740</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1719802284375977</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1595822090606413</v>
+        <v>0.158845729794323</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.186284147286666</v>
+        <v>0.1878597588248863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1413</v>
@@ -5659,19 +5659,19 @@
         <v>945056</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>902784</v>
+        <v>902378</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>992427</v>
+        <v>992692</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2619507363035631</v>
+        <v>0.2619507363035632</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2502336668640704</v>
+        <v>0.2501213278375872</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.275081045648169</v>
+        <v>0.2751544416075203</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2028</v>
@@ -5680,19 +5680,19 @@
         <v>1534381</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1471036</v>
+        <v>1469269</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1605330</v>
+        <v>1597529</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2181233412192136</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2091183442768693</v>
+        <v>0.2088671893353995</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2282092279749442</v>
+        <v>0.2271002244673798</v>
       </c>
     </row>
     <row r="24">
